--- a/Str.xlsx
+++ b/Str.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f31e73b004c6ed25/Work/LDND-Formatter/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_446923F942BB4E139D2C4CD6A52B194979754B18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BEF50E-332A-4CFE-A49C-7B5921F36FA3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$781</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -11382,8 +11373,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11446,14 +11437,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -11500,7 +11483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11532,27 +11515,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11584,24 +11549,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11777,17 +11724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11846,7 +11790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11857,7 +11801,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11907,7 +11851,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11957,7 +11901,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12007,7 +11951,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12018,7 +11962,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12068,7 +12012,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12118,7 +12062,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12168,7 +12112,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12218,7 +12162,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12274,7 +12218,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12330,7 +12274,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12386,7 +12330,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12442,7 +12386,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12498,7 +12442,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12545,16 +12489,16 @@
         <v>6600</v>
       </c>
       <c r="Q16">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S16">
         <v>6600</v>
       </c>
       <c r="T16">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12601,16 +12545,16 @@
         <v>6600</v>
       </c>
       <c r="Q17">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S17">
         <v>6600</v>
       </c>
       <c r="T17">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12666,7 +12610,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12722,7 +12666,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12778,7 +12722,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12834,7 +12778,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12890,7 +12834,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12946,7 +12890,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13002,7 +12946,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -13058,7 +13002,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -13114,7 +13058,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -13170,7 +13114,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -13217,16 +13161,16 @@
         <v>4000</v>
       </c>
       <c r="Q28">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S28">
         <v>4000</v>
       </c>
       <c r="T28">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -13273,16 +13217,16 @@
         <v>4000</v>
       </c>
       <c r="Q29">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S29">
         <v>4000</v>
       </c>
       <c r="T29">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -13338,7 +13282,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -13394,7 +13338,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -13441,16 +13385,16 @@
         <v>4000</v>
       </c>
       <c r="Q32">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S32">
         <v>4000</v>
       </c>
       <c r="T32">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -13506,7 +13450,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -13562,7 +13506,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -13612,7 +13556,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -13659,7 +13603,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -13709,7 +13653,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -13720,7 +13664,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -13776,7 +13720,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -13823,7 +13767,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -13879,7 +13823,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -13926,7 +13870,7 @@
         <v>1095.75</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -13982,7 +13926,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -14038,7 +13982,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -14088,7 +14032,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -14144,7 +14088,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -14194,7 +14138,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -14238,7 +14182,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -14294,7 +14238,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -14350,7 +14294,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14406,7 +14350,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14462,7 +14406,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14518,7 +14462,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -14574,7 +14518,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -14630,7 +14574,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -14686,7 +14630,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -14742,7 +14686,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -14798,7 +14742,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14854,7 +14798,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -14910,7 +14854,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -14966,7 +14910,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -15022,7 +14966,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -15078,7 +15022,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -15134,7 +15078,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -15190,7 +15134,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -15246,7 +15190,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -15302,7 +15246,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -15358,7 +15302,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -15414,7 +15358,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -15470,7 +15414,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15526,7 +15470,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15576,7 +15520,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15632,7 +15576,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15676,7 +15620,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15726,7 +15670,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15770,7 +15714,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15820,7 +15764,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -15876,7 +15820,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -15932,7 +15876,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -15988,7 +15932,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -16044,7 +15988,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -16091,16 +16035,16 @@
         <v>4000</v>
       </c>
       <c r="Q82">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S82">
         <v>4000</v>
       </c>
       <c r="T82">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -16156,7 +16100,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -16203,16 +16147,16 @@
         <v>4000</v>
       </c>
       <c r="Q84">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S84">
         <v>4000</v>
       </c>
       <c r="T84">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -16259,16 +16203,16 @@
         <v>4000</v>
       </c>
       <c r="Q85">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S85">
         <v>4000</v>
       </c>
       <c r="T85">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -16315,16 +16259,16 @@
         <v>4000</v>
       </c>
       <c r="Q86">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S86">
         <v>4000</v>
       </c>
       <c r="T86">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -16380,7 +16324,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -16436,7 +16380,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -16492,7 +16436,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -16548,7 +16492,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -16604,7 +16548,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -16660,7 +16604,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -16710,7 +16654,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -16766,7 +16710,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -16813,16 +16757,16 @@
         <v>4000</v>
       </c>
       <c r="Q95">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S95">
         <v>4000</v>
       </c>
       <c r="T95">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -16869,16 +16813,16 @@
         <v>4000</v>
       </c>
       <c r="Q96">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="S96">
         <v>4000</v>
       </c>
       <c r="T96">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -16934,7 +16878,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -16990,7 +16934,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -17046,7 +16990,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -17096,7 +17040,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -17152,7 +17096,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -17208,7 +17152,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -17255,7 +17199,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -17302,7 +17246,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -17349,7 +17293,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -17396,7 +17340,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -17443,7 +17387,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -17490,7 +17434,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -17540,7 +17484,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -17587,7 +17531,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -17634,7 +17578,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -17681,7 +17625,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -17728,7 +17672,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -17775,7 +17719,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -17822,7 +17766,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -17869,7 +17813,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -17916,7 +17860,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -17966,7 +17910,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -18016,7 +17960,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -18063,7 +18007,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -18110,7 +18054,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -18145,7 +18089,7 @@
         <v>1310</v>
       </c>
       <c r="M122">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="N122" t="s">
         <v>1460</v>
@@ -18157,7 +18101,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -18204,7 +18148,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -18251,7 +18195,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -18298,7 +18242,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -18348,7 +18292,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -18398,7 +18342,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -18448,7 +18392,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -18498,7 +18442,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -18548,7 +18492,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -18598,7 +18542,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -18648,7 +18592,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -18698,7 +18642,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -18745,7 +18689,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -18795,7 +18739,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -18845,7 +18789,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -18895,7 +18839,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -18945,7 +18889,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -18995,7 +18939,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -19042,7 +18986,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -19092,7 +19036,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -19142,7 +19086,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -19189,7 +19133,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -19236,7 +19180,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -19286,7 +19230,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -19336,7 +19280,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -19386,7 +19330,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -19433,7 +19377,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -19483,7 +19427,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -19533,7 +19477,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -19580,7 +19524,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -19627,7 +19571,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -19674,7 +19618,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -19721,7 +19665,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -19768,7 +19712,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -19815,7 +19759,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -19865,7 +19809,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -19915,7 +19859,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -19962,7 +19906,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -20009,7 +19953,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -20056,7 +20000,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -20103,7 +20047,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -20153,7 +20097,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -20203,7 +20147,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -20253,7 +20197,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -20300,7 +20244,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -20350,7 +20294,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -20400,7 +20344,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -20450,7 +20394,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -20500,7 +20444,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -20550,7 +20494,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -20600,7 +20544,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -20650,7 +20594,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -20700,7 +20644,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -20750,7 +20694,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -20800,7 +20744,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -20850,7 +20794,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -20900,7 +20844,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -20950,7 +20894,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -21000,7 +20944,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -21050,7 +20994,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -21100,7 +21044,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -21150,7 +21094,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -21200,7 +21144,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -21250,7 +21194,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -21300,7 +21244,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -21347,7 +21291,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -21394,7 +21338,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -21441,7 +21385,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -21488,7 +21432,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -21535,7 +21479,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -21582,7 +21526,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -21629,7 +21573,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -21679,7 +21623,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -21726,7 +21670,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -21776,7 +21720,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -21826,7 +21770,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -21876,7 +21820,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -21926,7 +21870,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -21973,7 +21917,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -22023,7 +21967,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -22070,7 +22014,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -22117,7 +22061,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -22167,7 +22111,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -22217,7 +22161,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -22264,7 +22208,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -22308,7 +22252,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -22352,7 +22296,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -22402,7 +22346,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -22452,7 +22396,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -22502,7 +22446,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -22552,7 +22496,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -22602,7 +22546,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -22652,7 +22596,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -22702,7 +22646,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -22752,7 +22696,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -22802,7 +22746,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -22852,7 +22796,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -22902,7 +22846,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -22952,7 +22896,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -22999,7 +22943,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -23046,7 +22990,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -23096,7 +23040,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -23146,7 +23090,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -23196,7 +23140,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -23246,7 +23190,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -23296,7 +23240,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -23346,7 +23290,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -23396,7 +23340,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -23446,7 +23390,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -23496,7 +23440,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -23546,7 +23490,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -23596,7 +23540,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -23646,7 +23590,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -23696,7 +23640,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -23746,7 +23690,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -23796,7 +23740,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -23846,7 +23790,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -23896,7 +23840,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -23946,7 +23890,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -23996,7 +23940,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -24046,7 +23990,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -24096,7 +24040,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -24146,7 +24090,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -24196,7 +24140,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -24246,7 +24190,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -24296,7 +24240,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -24346,7 +24290,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -24396,7 +24340,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -24446,7 +24390,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -24496,7 +24440,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -24546,7 +24490,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -24596,7 +24540,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -24646,7 +24590,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -24693,7 +24637,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -24743,7 +24687,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -24790,7 +24734,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -24837,7 +24781,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -24884,7 +24828,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -24931,7 +24875,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -24978,7 +24922,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -25025,7 +24969,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -25075,7 +25019,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -25125,7 +25069,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -25172,7 +25116,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -25219,7 +25163,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -25266,7 +25210,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -25313,7 +25257,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -25360,7 +25304,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -25410,7 +25354,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -25457,7 +25401,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -25507,7 +25451,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -25557,7 +25501,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -25607,7 +25551,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -25657,7 +25601,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -25707,7 +25651,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -25757,7 +25701,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -25807,7 +25751,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -25857,7 +25801,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -25907,7 +25851,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -25957,7 +25901,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -26007,7 +25951,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -26057,7 +26001,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -26107,7 +26051,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -26157,7 +26101,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -26207,7 +26151,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -26257,7 +26201,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -26307,7 +26251,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -26354,7 +26298,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -26401,7 +26345,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -26448,7 +26392,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -26495,7 +26439,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -26542,7 +26486,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -26592,7 +26536,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -26642,7 +26586,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -26692,7 +26636,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -26742,7 +26686,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -26792,7 +26736,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -26842,7 +26786,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -26892,7 +26836,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -26942,7 +26886,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -26992,7 +26936,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -27042,7 +26986,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -27092,7 +27036,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -27142,7 +27086,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -27192,7 +27136,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -27242,7 +27186,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -27292,7 +27236,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -27342,7 +27286,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -27392,7 +27336,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -27442,7 +27386,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -27492,7 +27436,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -27542,7 +27486,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -27592,7 +27536,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -27639,7 +27583,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -27689,7 +27633,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -27739,7 +27683,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -27789,7 +27733,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -27839,7 +27783,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -27889,7 +27833,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -27939,7 +27883,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -27989,7 +27933,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -28039,7 +27983,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -28089,7 +28033,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -28139,7 +28083,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -28189,7 +28133,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -28239,7 +28183,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -28289,7 +28233,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -28339,7 +28283,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -28389,7 +28333,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -28439,7 +28383,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -28489,7 +28433,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -28539,7 +28483,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -28589,7 +28533,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -28639,7 +28583,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -28689,7 +28633,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -28739,7 +28683,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -28789,7 +28733,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -28839,7 +28783,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -28889,7 +28833,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -28936,7 +28880,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -28986,7 +28930,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -29036,7 +28980,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -29086,7 +29030,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -29136,7 +29080,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -29186,7 +29130,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -29236,7 +29180,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -29286,7 +29230,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -29336,7 +29280,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -29386,7 +29330,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -29436,7 +29380,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -29486,7 +29430,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -29536,7 +29480,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -29586,7 +29530,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -29636,7 +29580,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -29686,7 +29630,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -29733,7 +29677,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -29780,7 +29724,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -29827,7 +29771,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -29874,7 +29818,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -29921,7 +29865,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -29968,7 +29912,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -30015,7 +29959,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -30062,7 +30006,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -30109,7 +30053,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -30120,7 +30064,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -30176,7 +30120,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -30232,7 +30176,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -30288,7 +30232,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -30344,7 +30288,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -30388,7 +30332,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -30432,7 +30376,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -30488,7 +30432,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -30544,7 +30488,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -30591,16 +30535,16 @@
         <v>9000</v>
       </c>
       <c r="Q375">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S375">
         <v>9000</v>
       </c>
       <c r="T375">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -30647,16 +30591,16 @@
         <v>9000</v>
       </c>
       <c r="Q376">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S376">
         <v>9000</v>
       </c>
       <c r="T376">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -30703,16 +30647,16 @@
         <v>9000</v>
       </c>
       <c r="Q377">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S377">
         <v>9000</v>
       </c>
       <c r="T377">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -30759,16 +30703,16 @@
         <v>9000</v>
       </c>
       <c r="Q378">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S378">
         <v>9000</v>
       </c>
       <c r="T378">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -30824,7 +30768,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -30880,7 +30824,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -30936,7 +30880,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -30992,7 +30936,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -31048,7 +30992,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -31104,7 +31048,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -31154,7 +31098,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -31204,7 +31148,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -31254,7 +31198,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -31304,7 +31248,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -31354,7 +31298,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -31404,7 +31348,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -31454,7 +31398,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -31504,7 +31448,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -31554,7 +31498,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -31604,7 +31548,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -31654,7 +31598,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -31704,7 +31648,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -31754,7 +31698,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -31804,7 +31748,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -31854,7 +31798,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -31904,7 +31848,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -31954,7 +31898,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -32004,7 +31948,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -32054,7 +31998,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -32104,7 +32048,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -32154,7 +32098,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -32204,7 +32148,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -32254,7 +32198,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -32304,7 +32248,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -32354,7 +32298,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -32404,7 +32348,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -32454,7 +32398,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -32504,7 +32448,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -32554,7 +32498,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -32604,7 +32548,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -32654,7 +32598,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -32704,7 +32648,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -32754,7 +32698,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -32804,7 +32748,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -32854,7 +32798,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -32904,7 +32848,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -32954,7 +32898,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -33004,7 +32948,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -33054,7 +32998,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -33104,7 +33048,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -33154,7 +33098,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -33165,7 +33109,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -33221,7 +33165,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -33277,7 +33221,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -33333,7 +33277,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -33389,7 +33333,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -33445,7 +33389,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -33501,7 +33445,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -33557,7 +33501,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -33607,7 +33551,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -33657,7 +33601,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -33713,7 +33657,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -33769,7 +33713,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -33825,7 +33769,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -33881,7 +33825,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -33937,7 +33881,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -33993,7 +33937,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -34043,7 +33987,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -34093,7 +34037,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -34149,7 +34093,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -34205,7 +34149,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -34261,7 +34205,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -34311,7 +34255,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -34361,7 +34305,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -34411,7 +34355,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -34461,7 +34405,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -34511,7 +34455,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -34561,7 +34505,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -34611,7 +34555,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -34661,7 +34605,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -34708,7 +34652,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -34755,7 +34699,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -34805,7 +34749,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -34855,7 +34799,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -34905,7 +34849,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -34952,7 +34896,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -34999,7 +34943,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -35049,7 +34993,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -35099,7 +35043,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -35146,7 +35090,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -35193,7 +35137,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -35243,7 +35187,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -35290,7 +35234,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -35337,7 +35281,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -35384,7 +35328,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -35431,7 +35375,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -35478,7 +35422,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -35528,7 +35472,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -35578,7 +35522,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -35625,7 +35569,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -35672,7 +35616,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -35722,7 +35666,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -35772,7 +35716,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -35822,7 +35766,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -35872,7 +35816,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -35922,7 +35866,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -35972,7 +35916,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -36022,7 +35966,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -36072,7 +36016,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -36122,7 +36066,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -36172,7 +36116,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -36222,7 +36166,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -36272,7 +36216,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -36322,7 +36266,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -36372,7 +36316,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -36422,7 +36366,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -36469,7 +36413,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -36516,7 +36460,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -36566,7 +36510,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -36616,7 +36560,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -36654,7 +36598,7 @@
         <v>1310</v>
       </c>
       <c r="M495">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="N495" t="s">
         <v>1833</v>
@@ -36666,7 +36610,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -36716,7 +36660,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -36766,7 +36710,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -36816,7 +36760,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -36866,7 +36810,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -36916,7 +36860,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -36966,7 +36910,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -37016,7 +36960,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -37063,7 +37007,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -37113,7 +37057,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -37160,7 +37104,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -37210,7 +37154,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -37257,7 +37201,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -37307,7 +37251,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -37357,7 +37301,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -37407,7 +37351,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -37457,7 +37401,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -37507,7 +37451,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -37554,7 +37498,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -37604,7 +37548,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -37654,7 +37598,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -37704,7 +37648,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -37754,7 +37698,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -37804,7 +37748,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -37854,7 +37798,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -37904,7 +37848,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -37954,7 +37898,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -38004,7 +37948,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -38054,7 +37998,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -38104,7 +38048,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -38154,7 +38098,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -38204,7 +38148,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -38254,7 +38198,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -38304,7 +38248,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -38354,7 +38298,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -38401,7 +38345,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -38448,7 +38392,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -38498,7 +38442,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -38548,7 +38492,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -38598,7 +38542,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -38648,7 +38592,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -38698,7 +38642,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -38748,7 +38692,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -38798,7 +38742,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -38848,7 +38792,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -38898,7 +38842,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -38948,7 +38892,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -38998,7 +38942,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -39048,7 +38992,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -39098,7 +39042,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -39148,7 +39092,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -39198,7 +39142,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -39248,7 +39192,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -39298,7 +39242,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -39336,7 +39280,7 @@
         <v>1310</v>
       </c>
       <c r="M549">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="N549" t="s">
         <v>1887</v>
@@ -39348,7 +39292,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -39386,7 +39330,7 @@
         <v>1310</v>
       </c>
       <c r="M550">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="N550" t="s">
         <v>1888</v>
@@ -39398,7 +39342,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -39448,7 +39392,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -39495,7 +39439,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -39542,7 +39486,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -39592,7 +39536,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -39642,7 +39586,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -39689,7 +39633,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -39736,7 +39680,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -39786,7 +39730,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -39836,7 +39780,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -39886,7 +39830,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -39936,7 +39880,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="562" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -39986,7 +39930,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -40036,7 +39980,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="564" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -40086,7 +40030,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -40097,7 +40041,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="566" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -40153,7 +40097,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -40209,7 +40153,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="568" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -40259,7 +40203,7 @@
         <v>1095.75</v>
       </c>
     </row>
-    <row r="569" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -40315,7 +40259,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="570" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -40371,7 +40315,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="571" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -40427,7 +40371,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -40483,7 +40427,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="573" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -40539,7 +40483,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -40595,7 +40539,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -40651,7 +40595,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -40698,16 +40642,16 @@
         <v>9000</v>
       </c>
       <c r="Q576">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S576">
         <v>9000</v>
       </c>
       <c r="T576">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="577" spans="1:20">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -40754,16 +40698,16 @@
         <v>9000</v>
       </c>
       <c r="Q577">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S577">
         <v>9000</v>
       </c>
       <c r="T577">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="578" spans="1:20">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -40810,16 +40754,16 @@
         <v>9000</v>
       </c>
       <c r="Q578">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S578">
         <v>9000</v>
       </c>
       <c r="T578">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="579" spans="1:20">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -40866,16 +40810,16 @@
         <v>9000</v>
       </c>
       <c r="Q579">
-        <v>1460.9760000000001</v>
+        <v>1460.976</v>
       </c>
       <c r="S579">
         <v>9000</v>
       </c>
       <c r="T579">
-        <v>1460.9760000000001</v>
-      </c>
-    </row>
-    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>1460.976</v>
+      </c>
+    </row>
+    <row r="580" spans="1:20">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -40931,7 +40875,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -40987,7 +40931,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="582" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -41037,7 +40981,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="583" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -41087,7 +41031,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="584" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:20">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -41137,7 +41081,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="585" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:20">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -41187,7 +41131,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="586" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -41243,7 +41187,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="587" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -41299,7 +41243,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="588" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -41355,7 +41299,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="589" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -41411,7 +41355,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="590" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:20">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -41467,7 +41411,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="591" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:20">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -41523,7 +41467,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="592" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -41579,7 +41523,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="593" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:20">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -41635,7 +41579,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="594" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:20">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -41691,7 +41635,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="595" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:20">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -41747,7 +41691,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="596" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:20">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -41803,7 +41747,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="597" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:20">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -41859,7 +41803,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="598" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:20">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -41915,7 +41859,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="599" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:20">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -41971,7 +41915,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="600" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:20">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -42027,7 +41971,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="601" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:20">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -42083,7 +42027,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="602" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:20">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -42139,7 +42083,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="603" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:20">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -42195,7 +42139,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="604" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:20">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -42251,7 +42195,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="605" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:20">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -42307,7 +42251,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="606" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:20">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -42363,7 +42307,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="607" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:20">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -42419,7 +42363,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="608" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:20">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -42469,7 +42413,7 @@
         <v>1826.25</v>
       </c>
     </row>
-    <row r="609" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:20">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -42519,7 +42463,7 @@
         <v>1826.25</v>
       </c>
     </row>
-    <row r="610" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:20">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -42575,7 +42519,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="611" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:20">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -42631,7 +42575,7 @@
         <v>3287.25</v>
       </c>
     </row>
-    <row r="612" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:20">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -42687,7 +42631,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="613" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:20">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -42743,7 +42687,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="614" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:20">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -42799,7 +42743,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="615" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:20">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -42855,7 +42799,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="616" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:20">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -42911,7 +42855,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="617" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:20">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -42967,7 +42911,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="618" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:20">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -43017,7 +42961,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="619" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:20">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -43067,7 +43011,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="620" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:20">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -43117,7 +43061,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="621" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:20">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -43167,7 +43111,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="622" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:20">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -43217,7 +43161,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="623" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:20">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -43267,7 +43211,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="624" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:20">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -43317,7 +43261,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -43367,7 +43311,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -43411,7 +43355,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -43455,7 +43399,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -43505,7 +43449,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -43555,7 +43499,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -43599,7 +43543,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -43643,7 +43587,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -43687,7 +43631,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -43731,7 +43675,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -43775,7 +43719,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -43813,13 +43757,13 @@
         <v>1310</v>
       </c>
       <c r="M635">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N635" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -43863,7 +43807,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -43907,7 +43851,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -43951,7 +43895,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -43995,7 +43939,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -44039,7 +43983,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -44080,7 +44024,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:19">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -44124,7 +44068,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:19">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -44165,7 +44109,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:19">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -44209,7 +44153,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:19">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -44250,7 +44194,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:19">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -44291,7 +44235,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:19">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -44338,7 +44282,7 @@
         <v>22600</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:19">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -44382,7 +44326,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:19">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -44426,7 +44370,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:19">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -44476,7 +44420,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:19">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -44526,7 +44470,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:19">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -44576,7 +44520,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:19">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -44626,7 +44570,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:19">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -44676,7 +44620,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:19">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -44717,7 +44661,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:19">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -44761,7 +44705,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -44805,7 +44749,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -44849,7 +44793,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -44890,7 +44834,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -44931,7 +44875,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -44972,7 +44916,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -45016,7 +44960,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -45057,7 +45001,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -45098,7 +45042,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -45142,7 +45086,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -45183,7 +45127,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -45227,7 +45171,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -45271,7 +45215,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -45315,7 +45259,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -45356,7 +45300,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -45400,7 +45344,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -45444,7 +45388,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:14">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -45488,7 +45432,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:14">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -45529,7 +45473,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:14">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -45573,7 +45517,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:14">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -45617,7 +45561,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:14">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -45661,7 +45605,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:14">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -45705,7 +45649,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:14">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -45749,7 +45693,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:14">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -45793,7 +45737,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:14">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -45837,7 +45781,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:14">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -45878,7 +45822,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:14">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -45919,7 +45863,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:14">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -45963,7 +45907,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:14">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -46001,13 +45945,13 @@
         <v>1310</v>
       </c>
       <c r="M685">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N685" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:14">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -46048,7 +45992,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:14">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -46092,7 +46036,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:14">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -46136,7 +46080,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:14">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -46177,7 +46121,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:14">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -46221,7 +46165,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:14">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -46262,7 +46206,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:14">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -46306,7 +46250,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:14">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -46350,7 +46294,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:14">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -46394,7 +46338,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:14">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -46438,7 +46382,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:14">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -46482,7 +46426,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:14">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -46523,7 +46467,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:14">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -46564,7 +46508,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:14">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -46608,7 +46552,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:14">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -46652,7 +46596,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:14">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -46696,7 +46640,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:14">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -46740,7 +46684,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:14">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -46784,7 +46728,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:14">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -46825,7 +46769,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -46869,7 +46813,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -46913,7 +46857,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -46954,7 +46898,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -46998,7 +46942,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -47048,7 +46992,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -47098,7 +47042,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -47142,7 +47086,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -47186,7 +47130,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -47227,7 +47171,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -47271,7 +47215,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -47315,7 +47259,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -47359,7 +47303,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -47400,7 +47344,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -47444,7 +47388,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -47488,7 +47432,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -47532,7 +47476,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:19">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -47576,7 +47520,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:19">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -47620,7 +47564,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:19">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -47661,7 +47605,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:19">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -47705,7 +47649,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:19">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -47746,7 +47690,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:19">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -47790,7 +47734,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:19">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -47834,7 +47778,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:19">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -47878,7 +47822,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="729" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:19">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -47925,7 +47869,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:19">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -47966,7 +47910,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:19">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -48007,7 +47951,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:19">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -48048,7 +47992,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:19">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -48092,7 +48036,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:19">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -48133,7 +48077,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:19">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -48174,7 +48118,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:19">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -48218,7 +48162,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="737" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:19">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -48268,7 +48212,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:19">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -48312,7 +48256,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:19">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -48356,7 +48300,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="740" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:19">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -48406,7 +48350,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="741" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:19">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -48453,7 +48397,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="742" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:19">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -48503,7 +48447,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="743" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:19">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -48553,7 +48497,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="744" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:19">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -48603,7 +48547,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="745" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:19">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -48653,7 +48597,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="746" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:19">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -48703,7 +48647,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="747" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:19">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -48753,7 +48697,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="748" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:19">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -48803,7 +48747,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="749" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:19">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -48853,7 +48797,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="750" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:19">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -48903,7 +48847,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="751" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:19">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -48953,7 +48897,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="752" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:19">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -49003,7 +48947,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:19">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -49053,7 +48997,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:19">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -49103,7 +49047,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:19">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -49153,7 +49097,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:19">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -49203,7 +49147,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:19">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -49253,7 +49197,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="758" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:19">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -49303,7 +49247,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:19">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -49353,7 +49297,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="760" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:19">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -49403,7 +49347,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:19">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -49450,7 +49394,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="762" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:19">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -49500,7 +49444,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:19">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -49550,7 +49494,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="764" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:19">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -49600,7 +49544,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="765" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:19">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -49650,7 +49594,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="766" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:19">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -49700,7 +49644,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:19">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -49744,7 +49688,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:19">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -49794,7 +49738,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="769" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:19">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -49844,7 +49788,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="770" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:19">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -49894,7 +49838,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="771" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:19">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -49944,7 +49888,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="772" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:19">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -49994,7 +49938,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="773" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:19">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -50044,7 +49988,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="774" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:19">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -50094,7 +50038,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="775" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:19">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -50144,7 +50088,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="776" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:19">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -50194,7 +50138,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="777" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:19">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -50244,7 +50188,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="778" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:19">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -50294,7 +50238,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="779" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:19">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -50344,7 +50288,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="780" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:19">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -50394,7 +50338,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="781" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:19">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -50445,19 +50389,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T781" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>